--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -282,7 +282,7 @@
     <t>dpv:Status</t>
   </si>
   <si>
-    <t>Indicates the status of a Right Exercise Activity</t>
+    <t>Also used to Indicate the status of a Right Exercise Activity</t>
   </si>
   <si>
     <t>dpv:hasRecipient</t>
@@ -291,7 +291,7 @@
     <t>dpv:Recipient</t>
   </si>
   <si>
-    <t>Indicates the Recipient of a Right Exercise Activity</t>
+    <t>Also used to indicate the Recipient of a Right Exercise Activity</t>
   </si>
   <si>
     <t>dpv:isImplementedByEntity</t>
@@ -300,13 +300,13 @@
     <t>dpv:Entity</t>
   </si>
   <si>
-    <t>Indicates the Entity that implements or performs a Right Exercise Activity</t>
+    <t>Also used to indicate the Entity that implements or performs a Right Exercise Activity</t>
   </si>
   <si>
     <t>foaf:page</t>
   </si>
   <si>
-    <t>Indicates a web page or document providing information or functionality associated with a Right Exercise</t>
+    <t>Also used to indicate a web page or document providing information or functionality associated with a Right Exercise</t>
   </si>
   <si>
     <t>dct:hasPart</t>
@@ -315,19 +315,19 @@
     <t>dpv:RightExerciseRecord</t>
   </si>
   <si>
-    <t>Specifying a RightExerciseRecord has RightExerciseActivity as part of its records</t>
+    <t>Also used for specifying a RightExerciseRecord has RightExerciseActivity as part of its records</t>
   </si>
   <si>
     <t>dct:isPartOf</t>
   </si>
   <si>
-    <t>Specifying a RightExerciseActivity is part of a RightExerciseRecord</t>
+    <t>Also used for specifying a RightExerciseActivity is part of a RightExerciseRecord</t>
   </si>
   <si>
     <t>dpv:isBefore</t>
   </si>
   <si>
-    <t>Specifying a RightExerciseActivity occurs before another RightExerciseActivity</t>
+    <t>Also used for specifying a RightExerciseActivity occurs before another RightExerciseActivity</t>
   </si>
   <si>
     <t>dpv:isAfter</t>
@@ -339,25 +339,25 @@
     <t>dpv:Justification</t>
   </si>
   <si>
-    <t>Specifying a justification for non-fulfilment of Right Exercise</t>
+    <t>Also used for specifying a justification for non-fulfilment of Right Exercise</t>
   </si>
   <si>
     <t>dct:format</t>
   </si>
   <si>
-    <t>Specifying the format of provided information, for example a CSV dataset</t>
+    <t>Also used for specifying the format of provided information, for example a CSV dataset</t>
   </si>
   <si>
     <t>dct:accessRights</t>
   </si>
   <si>
-    <t>Specifying constraints on access associated with Rights Exercising (e.g. User must log in) or access to provided data (e.g. access via link)</t>
+    <t>Also used for specifying constraints on access associated with Rights Exercising (e.g. User must log in) or access to provided data (e.g. access via link)</t>
   </si>
   <si>
     <t>dct:valid</t>
   </si>
   <si>
-    <t>Specifying the temporal validity of an activity associated with Right Exercise. For example, limits on duration for providing or accessing provided information</t>
+    <t>Also used for specifying the temporal validity of an activity associated with Right Exercise. For example, limits on duration for providing or accessing provided information</t>
   </si>
   <si>
     <t>EUFundamentalRights</t>
